--- a/DadosPico.xlsx
+++ b/DadosPico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thiago_Carlos\Downloads\RelatorioDeTurno2-main\RelatorioDeTurno2-main\recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B1FAF2-027C-42B5-80E8-AF772D884DA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE46F62-A52C-466B-B2ED-5C5A76A36FA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14175" xr2:uid="{CB592CAE-82D5-4E82-9621-AC3195482B01}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14175" xr2:uid="{CB592CAE-82D5-4E82-9621-AC3195482B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -15951,8 +15951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D2D222-4CD6-40EF-BB2A-0DA13E1BE088}">
   <dimension ref="A1:E3909"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3875" workbookViewId="0">
-      <selection activeCell="C3887" sqref="C3887"/>
+    <sheetView tabSelected="1" topLeftCell="A3827" workbookViewId="0">
+      <selection activeCell="A3848" sqref="A3848:XFD3848"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15960,7 +15960,7 @@
     <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.28515625" customWidth="1"/>
     <col min="5" max="5" width="64.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/DadosPico.xlsx
+++ b/DadosPico.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thiago_Carlos\Downloads\RelatorioDeTurno2-main\RelatorioDeTurno2-main\recursos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thiago_Carlos\Downloads\RelatorioDeTurno2-main\RelatorioDeTurno2-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE46F62-A52C-466B-B2ED-5C5A76A36FA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BA250E-81FF-4EC4-913B-95D136EF6EAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14175" xr2:uid="{CB592CAE-82D5-4E82-9621-AC3195482B01}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14175" xr2:uid="{CB592CAE-82D5-4E82-9621-AC3195482B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18276" uniqueCount="5122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20626" uniqueCount="5588">
   <si>
     <t>U.O.</t>
   </si>
@@ -15391,13 +15391,1411 @@
   </si>
   <si>
     <t>10.28.2.117:\Automação\01-PLC's\TCLD_PICO\TC17_510SE12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210-AL-01   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">210-BR-01       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">210-EX-01       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">210-GR-01       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">210-TC-01       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">210-TC-01A      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">210-TC-01A AUX  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">210-TC-01AM1    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">210-TC-01AM2    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">210-TC-01AM3    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">210-TC-02       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">210-TC-02AUX    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">210-TC-03       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">210-TC-03AUX    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">210-TC-03M1     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">210-TC-03M2     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">210-TC-03M3     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">210-TC-03M4     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">210-TC-03M5     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">210-TC-03M6     </t>
+  </si>
+  <si>
+    <t>210BU01</t>
+  </si>
+  <si>
+    <t>210BU02</t>
+  </si>
+  <si>
+    <t>210-UC-01</t>
+  </si>
+  <si>
+    <t>PICO SBR</t>
+  </si>
+  <si>
+    <t>BRITAGEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-AG-50   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-AG-51   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-AG-59   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-AL-02   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-AL-03   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-AL-51A  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-AM-53   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-BP-01   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-BP-02   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-BP-30   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-BP-32   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-BP-50   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-BP-50R  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-BP-51   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-BP-51A  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-BP51AR  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-BP-51R  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-BP-52   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-BP-52R  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-BP-59   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-BP-59R  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-BR-02   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-BR-03   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-CE-01   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-CE-02   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-DV-01   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-DV-04   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-DV-10   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-DV-50   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-DV-51   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-DV-52   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-EQ-48   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-EX-02   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-EX-03   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-FV-101  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-FV-110  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-FV-115  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-FV-12   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-FV-121  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-FV-16   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-FV-20   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-FV-31   </t>
+  </si>
+  <si>
+    <t>310-FV-50/51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-PD-01   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-PD-02   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-PD-03   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-PD-04   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-PD-51A  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-PE-01   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-PE-010  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-PE-02   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-PE-03   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-PE-04   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-PE-05   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-PE-06   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-SE-01   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-TC-04   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-TC-05   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-TC-06   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-TC-07   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-TC-09   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-TC-11   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-TC-50   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-TC-51   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-TC-51A  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-TC-52   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-TC-53   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-TC-54   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-TC-55   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310-TC-56   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-AG-02   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BP-03   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BP-04   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BP-05   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BP-06   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BP-09   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BP-12   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BP-31   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BU-05   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BV-01   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BV-02   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BV-03   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BV-04   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BV-05   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BV-06   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-CP-02   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-CP-03   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-CP-04   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-EP-01   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-01   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-02   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-03   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-04   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-TC-14   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">330-AG-04   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">330-AG-05   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">330-AG-06   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">330-BG-01   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">330-BG-02   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">330-BG-03   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">330-BG-18   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">330-BP-10   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">330-BP-11   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">330-BP-13   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">330-BU-01   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">330-BU-02   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">330-BU-03   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">330-BU-50   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">330-BU-50R  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">330-EP-02   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">340-AM-01   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">340-AM-02   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">340-AM-03   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">340-AM-04   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">340-EM-01   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">340-EM-02   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">340-EM-03   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">340-TC-10   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">340-TC-12   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">340-TC-13   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">420-BS-001  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">420-BU-01   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">420-BU-02   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">420-BU-06   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">420-BU-07   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">420-BU-08   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">420-BU-10   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">420-BU-11   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">420-BU-12   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">420-BU-13   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">420-BU-14   </t>
+  </si>
+  <si>
+    <t>310-UC-01</t>
+  </si>
+  <si>
+    <t>PICO ITMD</t>
+  </si>
+  <si>
+    <t>REAGENTES</t>
+  </si>
+  <si>
+    <t>PENEIRAMENTO</t>
+  </si>
+  <si>
+    <t>FLOTAÇÃO</t>
+  </si>
+  <si>
+    <t>CLASSIFICAÇÃO</t>
+  </si>
+  <si>
+    <t>ESPESSADORES</t>
+  </si>
+  <si>
+    <t>UTILIDADES</t>
+  </si>
+  <si>
+    <t>FILTRAGEM</t>
+  </si>
+  <si>
+    <t>AMOSTRAGEM</t>
+  </si>
+  <si>
+    <t>EMPILHAMENTO</t>
+  </si>
+  <si>
+    <t>320-BG-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-AG-07   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-AG-08   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-AG-09   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-AG-10   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-AG-11   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-AG-12   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-AG-13   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-AL-10   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BG-017  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BG-04   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BG-05   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BG-06   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BG-07   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BG-08   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BG-09   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BG-10   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BG-11   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BG-12   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BG-13   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BG-14   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BG-15   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BG-16   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BP-14   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BP-15   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BP-16   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BP-17   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BP-18   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BP-19   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BP-20   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BP-21   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BP-22   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BP-23   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BP-29   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BP-53   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BP-54   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BP-55   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BP-56   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BP-57   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BP-SAPO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-CP-06   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-CP-07   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-CP-08   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-EP-03   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-131  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-138  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-145  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-146  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-157  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-167  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-169  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-175  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-181  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-182  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-198  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-201  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-233  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-302  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-306  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-307  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-310  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-315  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-316  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-317  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-318  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-319  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-320  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-321  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-327  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-VB-01   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">330-BP-25   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">330-BP-26   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">330-BU-04   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">330-BU-09   </t>
+  </si>
+  <si>
+    <t>320-UC-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150-AG-01   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">150-BP-01   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">150-BP-01R  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">150-BP-02   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">150-BP-02R  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">150-BP-04   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">150-BP-04R  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">150-BP-05   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">150-BP-05R  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">150-BU-53   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">150-BU-53R  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">150-CP-001  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">150-FV-001  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">150-FV-002  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">150-FV-003  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">150-FV-004  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">150-FV-009  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">150-FV-010  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">150-FV-011  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">150-FV-024  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-AG-20   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-AG-21   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-AG-22   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-AG-23   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-AG-31   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-AG-32   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-AG-33   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-AL-11   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BG-100  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BG-30   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BG-30R  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BG-31   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BG-31R  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BG-33   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BG-33R  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BG-34   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BG-34R  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BG-35   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BG-35R  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BP-60   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BP-60R  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BP-61   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BP-63   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BP-63R  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BP-64   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BP-66   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BP-66R  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BP-67   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BP-67R  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BP-69   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BP-69R  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BP-70   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BP-70R  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BP-71   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BP-71R  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BP-72   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BP-72R  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BP-77   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BP-80   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BV-07   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-BV-08   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-CP-01   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-CP-09   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-CP-10   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-CP-11   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-CP-12   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-CP-13   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-CP-14   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-CP-15   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-EP-04   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-001  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-005  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-009  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-027  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-031  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-035  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-05   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-058  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-06   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-066  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-067  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-068  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-069  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-070  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-078  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-086  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-087  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-090  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-091  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-092  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-100  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-108  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-109  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-112  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-120  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-121  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-129  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-130  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-139  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-140  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV15_17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-156  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-159  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-160  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-165  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-166  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-176  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-177  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-178  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-179  </t>
+  </si>
+  <si>
+    <t>320-FV-18_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-180  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-183  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-184  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-185  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-205  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-206  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-FV-207  </t>
+  </si>
+  <si>
+    <t>320-FV-21_23</t>
+  </si>
+  <si>
+    <t>320-FV-24_26</t>
+  </si>
+  <si>
+    <t>320-FV-41_43</t>
+  </si>
+  <si>
+    <t>320-FV-46_48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-RD-003  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320-RD-004  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">330-AG-16   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">330-AG-17   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">330-BG-32   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">330-BG-32R  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">330-BP-10R  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">330-BU-51   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">330-BU-51R  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">330-BU-52   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">330-BU-52R  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">330-BU-54   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">330-BU-55   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">330-FV-007  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">330-FV-008  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">330-FV-009  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">330-FV-011  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">330-FV-012  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">340-AM-06   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">340-EM-04   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">340-TC-15   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FV`18_20    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FV`21_23    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FV`24_26    </t>
+  </si>
+  <si>
+    <t>FV-44_45_194</t>
+  </si>
+  <si>
+    <t>FV-49_50_195</t>
+  </si>
+  <si>
+    <t>320-UC-02</t>
+  </si>
+  <si>
+    <t>MINERODUTO PFF</t>
+  </si>
+  <si>
+    <t>110-AL-01</t>
+  </si>
+  <si>
+    <t>110-AL-02</t>
+  </si>
+  <si>
+    <t>110-BR-01</t>
+  </si>
+  <si>
+    <t>110-BR-02</t>
+  </si>
+  <si>
+    <t>110-BR-03</t>
+  </si>
+  <si>
+    <t>110-DM-01</t>
+  </si>
+  <si>
+    <t>110-PE-01</t>
+  </si>
+  <si>
+    <t>110-PE-02</t>
+  </si>
+  <si>
+    <t>110-SL-01</t>
+  </si>
+  <si>
+    <t>110-SL-02</t>
+  </si>
+  <si>
+    <t>110-TC-01</t>
+  </si>
+  <si>
+    <t>110-TC-02</t>
+  </si>
+  <si>
+    <t>110-TC-03</t>
+  </si>
+  <si>
+    <t>110-TC-04</t>
+  </si>
+  <si>
+    <t>110-VP-01</t>
+  </si>
+  <si>
+    <t>200-CE-01</t>
+  </si>
+  <si>
+    <t>200-CE-02</t>
+  </si>
+  <si>
+    <t>200-HC-02</t>
+  </si>
+  <si>
+    <t>200-PD-01</t>
+  </si>
+  <si>
+    <t>200-PD-03</t>
+  </si>
+  <si>
+    <t>200-TC-01</t>
+  </si>
+  <si>
+    <t>200-TQ-01</t>
+  </si>
+  <si>
+    <t>310-AM-01</t>
+  </si>
+  <si>
+    <t>310-TC-02</t>
+  </si>
+  <si>
+    <t>110-BU-01</t>
+  </si>
+  <si>
+    <t>110-UC-01</t>
+  </si>
+  <si>
+    <t>PICO ITMA</t>
+  </si>
+  <si>
+    <t>120-AL-01</t>
+  </si>
+  <si>
+    <t>120-AL-02</t>
+  </si>
+  <si>
+    <t>120-BR-01</t>
+  </si>
+  <si>
+    <t>120-BR-02</t>
+  </si>
+  <si>
+    <t>120-BR-03</t>
+  </si>
+  <si>
+    <t>120-DM-01</t>
+  </si>
+  <si>
+    <t>120-PE-01</t>
+  </si>
+  <si>
+    <t>120-PE-02</t>
+  </si>
+  <si>
+    <t>120-PE-03</t>
+  </si>
+  <si>
+    <t>120-SL-01</t>
+  </si>
+  <si>
+    <t>120-SL-02</t>
+  </si>
+  <si>
+    <t>120-TC-01</t>
+  </si>
+  <si>
+    <t>120-TC-02</t>
+  </si>
+  <si>
+    <t>120-TC-03</t>
+  </si>
+  <si>
+    <t>120-TC-04</t>
+  </si>
+  <si>
+    <t>120-TC-05</t>
+  </si>
+  <si>
+    <t>120-VP-01</t>
+  </si>
+  <si>
+    <t>120-UC-01</t>
+  </si>
+  <si>
+    <t>130-AL-01</t>
+  </si>
+  <si>
+    <t>130-BR-01</t>
+  </si>
+  <si>
+    <t>130-BR-02</t>
+  </si>
+  <si>
+    <t>130-BR-03</t>
+  </si>
+  <si>
+    <t>130-DM-01</t>
+  </si>
+  <si>
+    <t>130-PE-01</t>
+  </si>
+  <si>
+    <t>130-PE-02</t>
+  </si>
+  <si>
+    <t>130-PD-01</t>
+  </si>
+  <si>
+    <t>130-SL-01</t>
+  </si>
+  <si>
+    <t>130-SL-02</t>
+  </si>
+  <si>
+    <t>130-TC-01</t>
+  </si>
+  <si>
+    <t>130-TC-02</t>
+  </si>
+  <si>
+    <t>130-TC-03</t>
+  </si>
+  <si>
+    <t>130-TC-04</t>
+  </si>
+  <si>
+    <t>130-TC-05</t>
+  </si>
+  <si>
+    <t>130-TC-06</t>
+  </si>
+  <si>
+    <t>130-TC-07</t>
+  </si>
+  <si>
+    <t>130-TC-08</t>
+  </si>
+  <si>
+    <t>130-VP-01</t>
+  </si>
+  <si>
+    <t>130-CE-01</t>
+  </si>
+  <si>
+    <t>130-CE-02</t>
+  </si>
+  <si>
+    <t>200-BP-01</t>
+  </si>
+  <si>
+    <t>130-AM-01</t>
+  </si>
+  <si>
+    <t>130-AM-02</t>
+  </si>
+  <si>
+    <t>200-BP-03</t>
+  </si>
+  <si>
+    <t>130-AM-03</t>
+  </si>
+  <si>
+    <t>130-AM-04</t>
+  </si>
+  <si>
+    <t>130-UC-01</t>
+  </si>
+  <si>
+    <t>PICO ITMB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -15416,6 +16814,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -15504,7 +16909,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -15633,6 +17038,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -15949,10 +17357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D2D222-4CD6-40EF-BB2A-0DA13E1BE088}">
-  <dimension ref="A1:E3909"/>
+  <dimension ref="A1:E4379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3827" workbookViewId="0">
-      <selection activeCell="A3848" sqref="A3848:XFD3848"/>
+    <sheetView tabSelected="1" topLeftCell="A4370" workbookViewId="0">
+      <selection activeCell="E4351" sqref="E4351:E4379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -79899,6 +81307,7996 @@
         <v>5086</v>
       </c>
     </row>
+    <row r="3910" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3910" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3910" s="58" t="s">
+        <v>5122</v>
+      </c>
+      <c r="C3910" s="58" t="s">
+        <v>5144</v>
+      </c>
+      <c r="D3910" s="58" t="s">
+        <v>5145</v>
+      </c>
+      <c r="E3910" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="3911" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3911" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3911" s="58" t="s">
+        <v>5123</v>
+      </c>
+      <c r="C3911" s="58" t="s">
+        <v>5144</v>
+      </c>
+      <c r="D3911" s="58" t="s">
+        <v>5145</v>
+      </c>
+      <c r="E3911" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="3912" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3912" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3912" s="58" t="s">
+        <v>5124</v>
+      </c>
+      <c r="C3912" s="58" t="s">
+        <v>5144</v>
+      </c>
+      <c r="D3912" s="58" t="s">
+        <v>5145</v>
+      </c>
+      <c r="E3912" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="3913" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3913" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3913" s="58" t="s">
+        <v>5125</v>
+      </c>
+      <c r="C3913" s="58" t="s">
+        <v>5144</v>
+      </c>
+      <c r="D3913" s="58" t="s">
+        <v>5145</v>
+      </c>
+      <c r="E3913" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="3914" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3914" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3914" s="58" t="s">
+        <v>5126</v>
+      </c>
+      <c r="C3914" s="58" t="s">
+        <v>5144</v>
+      </c>
+      <c r="D3914" s="58" t="s">
+        <v>5145</v>
+      </c>
+      <c r="E3914" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="3915" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3915" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3915" s="58" t="s">
+        <v>5127</v>
+      </c>
+      <c r="C3915" s="58" t="s">
+        <v>5144</v>
+      </c>
+      <c r="D3915" s="58" t="s">
+        <v>5145</v>
+      </c>
+      <c r="E3915" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="3916" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3916" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3916" s="58" t="s">
+        <v>5128</v>
+      </c>
+      <c r="C3916" s="58" t="s">
+        <v>5144</v>
+      </c>
+      <c r="D3916" s="58" t="s">
+        <v>5145</v>
+      </c>
+      <c r="E3916" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="3917" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3917" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3917" s="58" t="s">
+        <v>5129</v>
+      </c>
+      <c r="C3917" s="58" t="s">
+        <v>5144</v>
+      </c>
+      <c r="D3917" s="58" t="s">
+        <v>5145</v>
+      </c>
+      <c r="E3917" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="3918" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3918" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3918" s="58" t="s">
+        <v>5130</v>
+      </c>
+      <c r="C3918" s="58" t="s">
+        <v>5144</v>
+      </c>
+      <c r="D3918" s="58" t="s">
+        <v>5145</v>
+      </c>
+      <c r="E3918" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="3919" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3919" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3919" s="58" t="s">
+        <v>5131</v>
+      </c>
+      <c r="C3919" s="58" t="s">
+        <v>5144</v>
+      </c>
+      <c r="D3919" s="58" t="s">
+        <v>5145</v>
+      </c>
+      <c r="E3919" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="3920" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3920" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3920" s="58" t="s">
+        <v>5132</v>
+      </c>
+      <c r="C3920" s="58" t="s">
+        <v>5144</v>
+      </c>
+      <c r="D3920" s="58" t="s">
+        <v>5145</v>
+      </c>
+      <c r="E3920" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="3921" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3921" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3921" s="58" t="s">
+        <v>5133</v>
+      </c>
+      <c r="C3921" s="58" t="s">
+        <v>5144</v>
+      </c>
+      <c r="D3921" s="58" t="s">
+        <v>5145</v>
+      </c>
+      <c r="E3921" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="3922" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3922" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3922" s="58" t="s">
+        <v>5134</v>
+      </c>
+      <c r="C3922" s="58" t="s">
+        <v>5144</v>
+      </c>
+      <c r="D3922" s="58" t="s">
+        <v>5145</v>
+      </c>
+      <c r="E3922" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="3923" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3923" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3923" s="58" t="s">
+        <v>5135</v>
+      </c>
+      <c r="C3923" s="58" t="s">
+        <v>5144</v>
+      </c>
+      <c r="D3923" s="58" t="s">
+        <v>5145</v>
+      </c>
+      <c r="E3923" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="3924" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3924" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3924" s="58" t="s">
+        <v>5136</v>
+      </c>
+      <c r="C3924" s="58" t="s">
+        <v>5144</v>
+      </c>
+      <c r="D3924" s="58" t="s">
+        <v>5145</v>
+      </c>
+      <c r="E3924" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="3925" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3925" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3925" s="58" t="s">
+        <v>5137</v>
+      </c>
+      <c r="C3925" s="58" t="s">
+        <v>5144</v>
+      </c>
+      <c r="D3925" s="58" t="s">
+        <v>5145</v>
+      </c>
+      <c r="E3925" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="3926" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3926" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3926" s="58" t="s">
+        <v>5138</v>
+      </c>
+      <c r="C3926" s="58" t="s">
+        <v>5144</v>
+      </c>
+      <c r="D3926" s="58" t="s">
+        <v>5145</v>
+      </c>
+      <c r="E3926" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="3927" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3927" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3927" s="58" t="s">
+        <v>5139</v>
+      </c>
+      <c r="C3927" s="58" t="s">
+        <v>5144</v>
+      </c>
+      <c r="D3927" s="58" t="s">
+        <v>5145</v>
+      </c>
+      <c r="E3927" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="3928" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3928" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3928" s="58" t="s">
+        <v>5140</v>
+      </c>
+      <c r="C3928" s="58" t="s">
+        <v>5144</v>
+      </c>
+      <c r="D3928" s="58" t="s">
+        <v>5145</v>
+      </c>
+      <c r="E3928" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="3929" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3929" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3929" s="58" t="s">
+        <v>5141</v>
+      </c>
+      <c r="C3929" s="58" t="s">
+        <v>5144</v>
+      </c>
+      <c r="D3929" s="58" t="s">
+        <v>5145</v>
+      </c>
+      <c r="E3929" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="3930" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3930" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3930" s="58" t="s">
+        <v>5142</v>
+      </c>
+      <c r="C3930" s="58" t="s">
+        <v>5144</v>
+      </c>
+      <c r="D3930" s="58" t="s">
+        <v>5145</v>
+      </c>
+      <c r="E3930" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="3931" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3931" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3931" s="58" t="s">
+        <v>5143</v>
+      </c>
+      <c r="C3931" s="58" t="s">
+        <v>5144</v>
+      </c>
+      <c r="D3931" s="58" t="s">
+        <v>5145</v>
+      </c>
+      <c r="E3931" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="3932" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3932" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3932" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3932" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3932" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3932" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3933" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3933" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3933" s="58" t="s">
+        <v>5147</v>
+      </c>
+      <c r="C3933" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3933" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3933" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="3934" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3934" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3934" s="58" t="s">
+        <v>5148</v>
+      </c>
+      <c r="C3934" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3934" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3934" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="3935" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3935" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3935" s="58" t="s">
+        <v>5149</v>
+      </c>
+      <c r="C3935" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3935" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3935" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="3936" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3936" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3936" s="58" t="s">
+        <v>5149</v>
+      </c>
+      <c r="C3936" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3936" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3936" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="3937" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3937" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3937" s="58" t="s">
+        <v>5150</v>
+      </c>
+      <c r="C3937" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3937" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3937" s="58" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="3938" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3938" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3938" s="58" t="s">
+        <v>5151</v>
+      </c>
+      <c r="C3938" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3938" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3938" s="58" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="3939" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3939" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3939" s="58" t="s">
+        <v>5152</v>
+      </c>
+      <c r="C3939" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3939" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3939" s="58" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="3940" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3940" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3940" s="58" t="s">
+        <v>5153</v>
+      </c>
+      <c r="C3940" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3940" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3940" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="3941" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3941" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3941" s="58" t="s">
+        <v>5154</v>
+      </c>
+      <c r="C3941" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3941" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3941" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="3942" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3942" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3942" s="58" t="s">
+        <v>5155</v>
+      </c>
+      <c r="C3942" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3942" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3942" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="3943" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3943" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3943" s="58" t="s">
+        <v>5156</v>
+      </c>
+      <c r="C3943" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3943" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3943" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="3944" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3944" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3944" s="58" t="s">
+        <v>5157</v>
+      </c>
+      <c r="C3944" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3944" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3944" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="3945" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3945" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3945" s="58" t="s">
+        <v>5158</v>
+      </c>
+      <c r="C3945" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3945" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3945" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="3946" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3946" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3946" s="58" t="s">
+        <v>5159</v>
+      </c>
+      <c r="C3946" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3946" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3946" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="3947" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3947" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3947" s="58" t="s">
+        <v>5160</v>
+      </c>
+      <c r="C3947" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3947" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3947" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="3948" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3948" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3948" s="58" t="s">
+        <v>5161</v>
+      </c>
+      <c r="C3948" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3948" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3948" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="3949" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3949" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3949" s="58" t="s">
+        <v>5162</v>
+      </c>
+      <c r="C3949" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3949" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3949" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="3950" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3950" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3950" s="58" t="s">
+        <v>5163</v>
+      </c>
+      <c r="C3950" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3950" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3950" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="3951" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3951" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3951" s="58" t="s">
+        <v>5164</v>
+      </c>
+      <c r="C3951" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3951" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3951" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="3952" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3952" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3952" s="58" t="s">
+        <v>5165</v>
+      </c>
+      <c r="C3952" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3952" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3952" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="3953" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3953" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3953" s="58" t="s">
+        <v>5166</v>
+      </c>
+      <c r="C3953" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3953" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3953" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="3954" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3954" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3954" s="58" t="s">
+        <v>5167</v>
+      </c>
+      <c r="C3954" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3954" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3954" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="3955" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3955" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3955" s="58" t="s">
+        <v>5168</v>
+      </c>
+      <c r="C3955" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3955" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3955" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="3956" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3956" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3956" s="58" t="s">
+        <v>5169</v>
+      </c>
+      <c r="C3956" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3956" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3956" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="3957" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3957" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3957" s="58" t="s">
+        <v>5170</v>
+      </c>
+      <c r="C3957" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3957" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3957" s="58" t="s">
+        <v>5283</v>
+      </c>
+    </row>
+    <row r="3958" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3958" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3958" s="58" t="s">
+        <v>5171</v>
+      </c>
+      <c r="C3958" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3958" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3958" s="58" t="s">
+        <v>5283</v>
+      </c>
+    </row>
+    <row r="3959" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3959" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3959" s="58" t="s">
+        <v>5172</v>
+      </c>
+      <c r="C3959" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3959" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3959" s="58" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="3960" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3960" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3960" s="58" t="s">
+        <v>5173</v>
+      </c>
+      <c r="C3960" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3960" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3960" s="58" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="3961" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3961" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3961" s="58" t="s">
+        <v>5174</v>
+      </c>
+      <c r="C3961" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3961" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3961" s="58" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="3962" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3962" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3962" s="58" t="s">
+        <v>5175</v>
+      </c>
+      <c r="C3962" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3962" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3962" s="58" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="3963" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3963" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3963" s="58" t="s">
+        <v>5176</v>
+      </c>
+      <c r="C3963" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3963" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3963" s="58" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="3964" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3964" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3964" s="58" t="s">
+        <v>5177</v>
+      </c>
+      <c r="C3964" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3964" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3964" s="58" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="3965" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3965" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3965" s="58" t="s">
+        <v>5178</v>
+      </c>
+      <c r="C3965" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3965" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3965" s="58" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="3966" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3966" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3966" s="58" t="s">
+        <v>5179</v>
+      </c>
+      <c r="C3966" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3966" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3966" s="58" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="3967" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3967" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3967" s="58" t="s">
+        <v>5180</v>
+      </c>
+      <c r="C3967" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3967" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3967" s="58" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="3968" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3968" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3968" s="58" t="s">
+        <v>5181</v>
+      </c>
+      <c r="C3968" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3968" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3968" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="3969" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3969" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3969" s="58" t="s">
+        <v>5182</v>
+      </c>
+      <c r="C3969" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3969" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3969" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="3970" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3970" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3970" s="58" t="s">
+        <v>5183</v>
+      </c>
+      <c r="C3970" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3970" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3970" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="3971" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3971" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3971" s="58" t="s">
+        <v>5184</v>
+      </c>
+      <c r="C3971" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3971" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3971" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="3972" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3972" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3972" s="58" t="s">
+        <v>5185</v>
+      </c>
+      <c r="C3972" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3972" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3972" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="3973" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3973" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3973" s="58" t="s">
+        <v>5186</v>
+      </c>
+      <c r="C3973" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3973" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3973" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="3974" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3974" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3974" s="58" t="s">
+        <v>5187</v>
+      </c>
+      <c r="C3974" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3974" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3974" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="3975" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3975" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3975" s="58" t="s">
+        <v>5188</v>
+      </c>
+      <c r="C3975" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3975" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3975" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="3976" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3976" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3976" s="58" t="s">
+        <v>5189</v>
+      </c>
+      <c r="C3976" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3976" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3976" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="3977" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3977" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3977" s="58" t="s">
+        <v>5190</v>
+      </c>
+      <c r="C3977" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3977" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3977" s="58" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="3978" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3978" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3978" s="58" t="s">
+        <v>5191</v>
+      </c>
+      <c r="C3978" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3978" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3978" s="58" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="3979" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3979" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3979" s="58" t="s">
+        <v>5192</v>
+      </c>
+      <c r="C3979" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3979" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3979" s="58" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="3980" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3980" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3980" s="58" t="s">
+        <v>5193</v>
+      </c>
+      <c r="C3980" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3980" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3980" s="58" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="3981" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3981" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3981" s="58" t="s">
+        <v>5194</v>
+      </c>
+      <c r="C3981" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3981" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3981" s="58" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="3982" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3982" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3982" s="58" t="s">
+        <v>5195</v>
+      </c>
+      <c r="C3982" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3982" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3982" s="58" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="3983" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3983" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3983" s="58" t="s">
+        <v>5196</v>
+      </c>
+      <c r="C3983" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3983" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3983" s="58" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="3984" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3984" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3984" s="58" t="s">
+        <v>5197</v>
+      </c>
+      <c r="C3984" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3984" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3984" s="58" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="3985" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3985" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3985" s="58" t="s">
+        <v>5198</v>
+      </c>
+      <c r="C3985" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3985" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3985" s="58" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="3986" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3986" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3986" s="58" t="s">
+        <v>5199</v>
+      </c>
+      <c r="C3986" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3986" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3986" s="58" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="3987" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3987" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3987" s="58" t="s">
+        <v>5200</v>
+      </c>
+      <c r="C3987" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3987" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3987" s="58" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="3988" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3988" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3988" s="58" t="s">
+        <v>5201</v>
+      </c>
+      <c r="C3988" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3988" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3988" s="58" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="3989" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3989" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3989" s="58" t="s">
+        <v>5202</v>
+      </c>
+      <c r="C3989" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3989" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3989" s="58" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="3990" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3990" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3990" s="58" t="s">
+        <v>5203</v>
+      </c>
+      <c r="C3990" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3990" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3990" s="58" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="3991" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3991" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3991" s="58" t="s">
+        <v>5204</v>
+      </c>
+      <c r="C3991" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3991" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3991" s="58" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="3992" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3992" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3992" s="58" t="s">
+        <v>5205</v>
+      </c>
+      <c r="C3992" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3992" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3992" s="58" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="3993" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3993" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3993" s="58" t="s">
+        <v>5206</v>
+      </c>
+      <c r="C3993" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3993" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3993" s="58" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="3994" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3994" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3994" s="58" t="s">
+        <v>5207</v>
+      </c>
+      <c r="C3994" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3994" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3994" s="58" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="3995" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3995" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3995" s="58" t="s">
+        <v>5208</v>
+      </c>
+      <c r="C3995" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3995" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3995" s="58" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="3996" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3996" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3996" s="58" t="s">
+        <v>5209</v>
+      </c>
+      <c r="C3996" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3996" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3996" s="58" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="3997" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3997" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3997" s="58" t="s">
+        <v>5210</v>
+      </c>
+      <c r="C3997" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3997" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3997" s="58" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="3998" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3998" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3998" s="58" t="s">
+        <v>5211</v>
+      </c>
+      <c r="C3998" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3998" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3998" s="58" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="3999" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3999" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3999" s="58" t="s">
+        <v>5212</v>
+      </c>
+      <c r="C3999" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D3999" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E3999" s="58" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="4000" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4000" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4000" s="58" t="s">
+        <v>5213</v>
+      </c>
+      <c r="C4000" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4000" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4000" s="58" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="4001" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4001" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4001" s="58" t="s">
+        <v>5214</v>
+      </c>
+      <c r="C4001" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4001" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4001" s="58" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="4002" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4002" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4002" s="58" t="s">
+        <v>5215</v>
+      </c>
+      <c r="C4002" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4002" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4002" s="58" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="4003" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4003" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4003" s="58" t="s">
+        <v>5216</v>
+      </c>
+      <c r="C4003" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4003" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4003" s="58" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="4004" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4004" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4004" s="58" t="s">
+        <v>5217</v>
+      </c>
+      <c r="C4004" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4004" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4004" s="58" t="s">
+        <v>5284</v>
+      </c>
+    </row>
+    <row r="4005" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4005" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4005" s="58" t="s">
+        <v>5218</v>
+      </c>
+      <c r="C4005" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4005" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4005" s="58" t="s">
+        <v>5284</v>
+      </c>
+    </row>
+    <row r="4006" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4006" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4006" s="58" t="s">
+        <v>5219</v>
+      </c>
+      <c r="C4006" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4006" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4006" s="58" t="s">
+        <v>5284</v>
+      </c>
+    </row>
+    <row r="4007" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4007" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4007" s="58" t="s">
+        <v>5220</v>
+      </c>
+      <c r="C4007" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4007" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4007" s="58" t="s">
+        <v>5283</v>
+      </c>
+    </row>
+    <row r="4008" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4008" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4008" s="58" t="s">
+        <v>5221</v>
+      </c>
+      <c r="C4008" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4008" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4008" s="58" t="s">
+        <v>5283</v>
+      </c>
+    </row>
+    <row r="4009" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4009" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4009" s="58" t="s">
+        <v>5222</v>
+      </c>
+      <c r="C4009" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4009" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4009" s="58" t="s">
+        <v>5283</v>
+      </c>
+    </row>
+    <row r="4010" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4010" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4010" s="58" t="s">
+        <v>5223</v>
+      </c>
+      <c r="C4010" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4010" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4010" s="58" t="s">
+        <v>5283</v>
+      </c>
+    </row>
+    <row r="4011" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4011" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4011" s="58" t="s">
+        <v>5224</v>
+      </c>
+      <c r="C4011" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4011" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4011" s="58" t="s">
+        <v>5283</v>
+      </c>
+    </row>
+    <row r="4012" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4012" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4012" s="58" t="s">
+        <v>5225</v>
+      </c>
+      <c r="C4012" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4012" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4012" s="58" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="4013" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4013" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4013" s="58" t="s">
+        <v>5226</v>
+      </c>
+      <c r="C4013" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4013" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4013" s="58" t="s">
+        <v>5286</v>
+      </c>
+    </row>
+    <row r="4014" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4014" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4014" s="58" t="s">
+        <v>5227</v>
+      </c>
+      <c r="C4014" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4014" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4014" s="58" t="s">
+        <v>5286</v>
+      </c>
+    </row>
+    <row r="4015" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4015" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4015" s="58" t="s">
+        <v>5228</v>
+      </c>
+      <c r="C4015" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4015" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4015" s="58" t="s">
+        <v>5286</v>
+      </c>
+    </row>
+    <row r="4016" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4016" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4016" s="58" t="s">
+        <v>5229</v>
+      </c>
+      <c r="C4016" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4016" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4016" s="58" t="s">
+        <v>5286</v>
+      </c>
+    </row>
+    <row r="4017" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4017" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4017" s="58" t="s">
+        <v>5230</v>
+      </c>
+      <c r="C4017" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4017" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4017" s="58" t="s">
+        <v>5286</v>
+      </c>
+    </row>
+    <row r="4018" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4018" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4018" s="58" t="s">
+        <v>5231</v>
+      </c>
+      <c r="C4018" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4018" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4018" s="58" t="s">
+        <v>5286</v>
+      </c>
+    </row>
+    <row r="4019" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4019" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4019" s="58" t="s">
+        <v>5232</v>
+      </c>
+      <c r="C4019" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4019" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4019" s="58" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="4020" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4020" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4020" s="58" t="s">
+        <v>5233</v>
+      </c>
+      <c r="C4020" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4020" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4020" s="58" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="4021" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4021" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4021" s="58" t="s">
+        <v>5234</v>
+      </c>
+      <c r="C4021" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4021" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4021" s="58" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="4022" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4022" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4022" s="58" t="s">
+        <v>5235</v>
+      </c>
+      <c r="C4022" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4022" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4022" s="58" t="s">
+        <v>5284</v>
+      </c>
+    </row>
+    <row r="4023" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4023" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4023" s="58" t="s">
+        <v>5236</v>
+      </c>
+      <c r="C4023" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4023" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4023" s="58" t="s">
+        <v>5286</v>
+      </c>
+    </row>
+    <row r="4024" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4024" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4024" s="58" t="s">
+        <v>5237</v>
+      </c>
+      <c r="C4024" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4024" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4024" s="58" t="s">
+        <v>5286</v>
+      </c>
+    </row>
+    <row r="4025" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4025" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4025" s="58" t="s">
+        <v>5238</v>
+      </c>
+      <c r="C4025" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4025" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4025" s="58" t="s">
+        <v>5286</v>
+      </c>
+    </row>
+    <row r="4026" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4026" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4026" s="58" t="s">
+        <v>5239</v>
+      </c>
+      <c r="C4026" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4026" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4026" s="58" t="s">
+        <v>5286</v>
+      </c>
+    </row>
+    <row r="4027" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4027" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4027" s="58" t="s">
+        <v>5240</v>
+      </c>
+      <c r="C4027" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4027" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4027" s="58" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="4028" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4028" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4028" s="58" t="s">
+        <v>5241</v>
+      </c>
+      <c r="C4028" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4028" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4028" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="4029" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4029" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4029" s="58" t="s">
+        <v>5242</v>
+      </c>
+      <c r="C4029" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4029" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4029" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="4030" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4030" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4030" s="58" t="s">
+        <v>5243</v>
+      </c>
+      <c r="C4030" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4030" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4030" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="4031" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4031" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4031" s="58" t="s">
+        <v>5244</v>
+      </c>
+      <c r="C4031" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4031" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4031" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="4032" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4032" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4032" s="58" t="s">
+        <v>5245</v>
+      </c>
+      <c r="C4032" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4032" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4032" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="4033" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4033" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4033" s="58" t="s">
+        <v>5246</v>
+      </c>
+      <c r="C4033" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4033" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4033" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="4034" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4034" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4034" s="58" t="s">
+        <v>5247</v>
+      </c>
+      <c r="C4034" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4034" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4034" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="4035" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4035" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4035" s="58" t="s">
+        <v>5248</v>
+      </c>
+      <c r="C4035" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4035" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4035" s="58" t="s">
+        <v>5284</v>
+      </c>
+    </row>
+    <row r="4036" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4036" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4036" s="58" t="s">
+        <v>5249</v>
+      </c>
+      <c r="C4036" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4036" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4036" s="58" t="s">
+        <v>5284</v>
+      </c>
+    </row>
+    <row r="4037" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4037" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4037" s="58" t="s">
+        <v>5250</v>
+      </c>
+      <c r="C4037" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4037" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4037" s="58" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="4038" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4038" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4038" s="58" t="s">
+        <v>5251</v>
+      </c>
+      <c r="C4038" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4038" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4038" s="58" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="4039" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4039" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4039" s="58" t="s">
+        <v>5252</v>
+      </c>
+      <c r="C4039" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4039" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4039" s="58" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="4040" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4040" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4040" s="58" t="s">
+        <v>5253</v>
+      </c>
+      <c r="C4040" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4040" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4040" s="58" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="4041" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4041" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4041" s="58" t="s">
+        <v>5254</v>
+      </c>
+      <c r="C4041" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4041" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4041" s="58" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="4042" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4042" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4042" s="58" t="s">
+        <v>5255</v>
+      </c>
+      <c r="C4042" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4042" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4042" s="58" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="4043" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4043" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4043" s="58" t="s">
+        <v>5256</v>
+      </c>
+      <c r="C4043" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4043" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4043" s="58" t="s">
+        <v>5284</v>
+      </c>
+    </row>
+    <row r="4044" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4044" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4044" s="58" t="s">
+        <v>5257</v>
+      </c>
+      <c r="C4044" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4044" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4044" s="58" t="s">
+        <v>5287</v>
+      </c>
+    </row>
+    <row r="4045" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4045" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4045" s="58" t="s">
+        <v>5258</v>
+      </c>
+      <c r="C4045" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4045" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4045" s="58" t="s">
+        <v>5287</v>
+      </c>
+    </row>
+    <row r="4046" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4046" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4046" s="58" t="s">
+        <v>5259</v>
+      </c>
+      <c r="C4046" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4046" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4046" s="58" t="s">
+        <v>5287</v>
+      </c>
+    </row>
+    <row r="4047" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4047" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4047" s="58" t="s">
+        <v>5260</v>
+      </c>
+      <c r="C4047" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4047" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4047" s="58" t="s">
+        <v>5287</v>
+      </c>
+    </row>
+    <row r="4048" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4048" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4048" s="58" t="s">
+        <v>5261</v>
+      </c>
+      <c r="C4048" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4048" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4048" s="58" t="s">
+        <v>5288</v>
+      </c>
+    </row>
+    <row r="4049" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4049" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4049" s="58" t="s">
+        <v>5262</v>
+      </c>
+      <c r="C4049" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4049" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4049" s="58" t="s">
+        <v>5288</v>
+      </c>
+    </row>
+    <row r="4050" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4050" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4050" s="58" t="s">
+        <v>5263</v>
+      </c>
+      <c r="C4050" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4050" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4050" s="58" t="s">
+        <v>5288</v>
+      </c>
+    </row>
+    <row r="4051" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4051" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4051" s="58" t="s">
+        <v>5264</v>
+      </c>
+      <c r="C4051" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4051" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4051" s="58" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="4052" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4052" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4052" s="58" t="s">
+        <v>5265</v>
+      </c>
+      <c r="C4052" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4052" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4052" s="58" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="4053" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4053" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4053" s="58" t="s">
+        <v>5266</v>
+      </c>
+      <c r="C4053" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4053" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4053" s="58" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="4054" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4054" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4054" s="58" t="s">
+        <v>5267</v>
+      </c>
+      <c r="C4054" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4054" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4054" s="58" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="4055" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4055" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4055" s="58" t="s">
+        <v>5267</v>
+      </c>
+      <c r="C4055" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4055" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4055" s="58" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="4056" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4056" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4056" s="58" t="s">
+        <v>5268</v>
+      </c>
+      <c r="C4056" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4056" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4056" s="58" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="4057" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4057" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4057" s="58" t="s">
+        <v>5269</v>
+      </c>
+      <c r="C4057" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4057" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4057" s="58" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="4058" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4058" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4058" s="58" t="s">
+        <v>5270</v>
+      </c>
+      <c r="C4058" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4058" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4058" s="58" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="4059" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4059" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4059" s="58" t="s">
+        <v>5271</v>
+      </c>
+      <c r="C4059" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4059" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4059" s="58" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="4060" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4060" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4060" s="58" t="s">
+        <v>5272</v>
+      </c>
+      <c r="C4060" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4060" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4060" s="58" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="4061" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4061" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4061" s="58" t="s">
+        <v>5273</v>
+      </c>
+      <c r="C4061" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4061" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4061" s="58" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="4062" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4062" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4062" s="58" t="s">
+        <v>5274</v>
+      </c>
+      <c r="C4062" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4062" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4062" s="58" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="4063" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4063" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4063" s="58" t="s">
+        <v>5275</v>
+      </c>
+      <c r="C4063" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4063" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4063" s="58" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="4064" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4064" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4064" s="58" t="s">
+        <v>5276</v>
+      </c>
+      <c r="C4064" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4064" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4064" s="58" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="4065" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4065" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4065" s="58" t="s">
+        <v>5277</v>
+      </c>
+      <c r="C4065" s="58" t="s">
+        <v>5278</v>
+      </c>
+      <c r="D4065" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4065" s="58" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="4066" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4066" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4066" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4066" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4066" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4066" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4067" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4067" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4067" s="58" t="s">
+        <v>4131</v>
+      </c>
+      <c r="C4067" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4067" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4067" s="58" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="4068" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4068" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4068" s="58" t="s">
+        <v>4132</v>
+      </c>
+      <c r="C4068" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4068" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4068" s="58" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="4069" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4069" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4069" s="58" t="s">
+        <v>4133</v>
+      </c>
+      <c r="C4069" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4069" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4069" s="58" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="4070" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4070" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4070" s="58" t="s">
+        <v>4134</v>
+      </c>
+      <c r="C4070" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4070" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4070" s="58" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="4071" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4071" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4071" s="58" t="s">
+        <v>4358</v>
+      </c>
+      <c r="C4071" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4071" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4071" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="4072" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4072" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4072" s="58" t="s">
+        <v>5289</v>
+      </c>
+      <c r="C4072" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4072" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4072" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="4073" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4073" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4073" s="58" t="s">
+        <v>4360</v>
+      </c>
+      <c r="C4073" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4073" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4073" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="4074" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4074" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4074" s="58" t="s">
+        <v>4361</v>
+      </c>
+      <c r="C4074" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4074" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4074" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="4075" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4075" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4075" s="58" t="s">
+        <v>4362</v>
+      </c>
+      <c r="C4075" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4075" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4075" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="4076" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4076" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4076" s="58" t="s">
+        <v>4363</v>
+      </c>
+      <c r="C4076" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4076" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4076" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="4077" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4077" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4077" s="58" t="s">
+        <v>4364</v>
+      </c>
+      <c r="C4077" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4077" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4077" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="4078" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4078" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4078" s="58" t="s">
+        <v>5290</v>
+      </c>
+      <c r="C4078" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4078" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4078" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4079" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4079" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4079" s="58" t="s">
+        <v>5291</v>
+      </c>
+      <c r="C4079" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4079" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4079" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4080" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4080" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4080" s="58" t="s">
+        <v>5292</v>
+      </c>
+      <c r="C4080" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4080" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4080" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4081" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4081" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4081" s="58" t="s">
+        <v>5293</v>
+      </c>
+      <c r="C4081" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4081" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4081" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4082" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4082" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4082" s="58" t="s">
+        <v>5294</v>
+      </c>
+      <c r="C4082" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4082" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4082" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4083" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4083" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4083" s="58" t="s">
+        <v>5295</v>
+      </c>
+      <c r="C4083" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4083" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4083" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4084" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4084" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4084" s="58" t="s">
+        <v>5296</v>
+      </c>
+      <c r="C4084" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4084" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4084" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4085" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4085" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4085" s="58" t="s">
+        <v>5297</v>
+      </c>
+      <c r="C4085" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4085" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4085" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4086" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4086" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4086" s="58" t="s">
+        <v>5298</v>
+      </c>
+      <c r="C4086" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4086" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4086" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="4087" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4087" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4087" s="58" t="s">
+        <v>5299</v>
+      </c>
+      <c r="C4087" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4087" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4087" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="4088" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4088" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4088" s="58" t="s">
+        <v>5300</v>
+      </c>
+      <c r="C4088" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4088" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4088" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="4089" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4089" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4089" s="58" t="s">
+        <v>5301</v>
+      </c>
+      <c r="C4089" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4089" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4089" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="4090" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4090" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4090" s="58" t="s">
+        <v>5302</v>
+      </c>
+      <c r="C4090" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4090" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4090" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="4091" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4091" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4091" s="58" t="s">
+        <v>5303</v>
+      </c>
+      <c r="C4091" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4091" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4091" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="4092" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4092" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4092" s="58" t="s">
+        <v>5304</v>
+      </c>
+      <c r="C4092" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4092" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4092" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="4093" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4093" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4093" s="58" t="s">
+        <v>5305</v>
+      </c>
+      <c r="C4093" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4093" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4093" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="4094" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4094" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4094" s="58" t="s">
+        <v>5306</v>
+      </c>
+      <c r="C4094" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4094" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4094" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="4095" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4095" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4095" s="58" t="s">
+        <v>5307</v>
+      </c>
+      <c r="C4095" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4095" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4095" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="4096" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4096" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4096" s="58" t="s">
+        <v>5308</v>
+      </c>
+      <c r="C4096" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4096" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4096" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="4097" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4097" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4097" s="58" t="s">
+        <v>5309</v>
+      </c>
+      <c r="C4097" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4097" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4097" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="4098" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4098" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4098" s="58" t="s">
+        <v>5310</v>
+      </c>
+      <c r="C4098" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4098" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4098" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="4099" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4099" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4099" s="58" t="s">
+        <v>5311</v>
+      </c>
+      <c r="C4099" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4099" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4099" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="4100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4100" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4100" s="58" t="s">
+        <v>5312</v>
+      </c>
+      <c r="C4100" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4100" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4100" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4101" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4101" s="58" t="s">
+        <v>5313</v>
+      </c>
+      <c r="C4101" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4101" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4101" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4102" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4102" s="58" t="s">
+        <v>5314</v>
+      </c>
+      <c r="C4102" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4102" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4102" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4103" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4103" s="58" t="s">
+        <v>5315</v>
+      </c>
+      <c r="C4103" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4103" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4103" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4104" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4104" s="58" t="s">
+        <v>5316</v>
+      </c>
+      <c r="C4104" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4104" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4104" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4105" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4105" s="58" t="s">
+        <v>5317</v>
+      </c>
+      <c r="C4105" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4105" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4105" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4106" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4106" s="58" t="s">
+        <v>5318</v>
+      </c>
+      <c r="C4106" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4106" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4106" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4107" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4107" s="58" t="s">
+        <v>5319</v>
+      </c>
+      <c r="C4107" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4107" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4107" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4108" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4108" s="58" t="s">
+        <v>5320</v>
+      </c>
+      <c r="C4108" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4108" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4108" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4109" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4109" s="58" t="s">
+        <v>5321</v>
+      </c>
+      <c r="C4109" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4109" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4109" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4110" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4110" s="58" t="s">
+        <v>5322</v>
+      </c>
+      <c r="C4110" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4110" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4110" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4111" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4111" s="58" t="s">
+        <v>5323</v>
+      </c>
+      <c r="C4111" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4111" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4111" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4112" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4112" s="58" t="s">
+        <v>5324</v>
+      </c>
+      <c r="C4112" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4112" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4112" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4113" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4113" s="58" t="s">
+        <v>5325</v>
+      </c>
+      <c r="C4113" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4113" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4113" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4114" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4114" s="58" t="s">
+        <v>5326</v>
+      </c>
+      <c r="C4114" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4114" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4114" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4115" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4115" s="58" t="s">
+        <v>5327</v>
+      </c>
+      <c r="C4115" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4115" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4115" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4116" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4116" s="58" t="s">
+        <v>5328</v>
+      </c>
+      <c r="C4116" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4116" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4116" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4117" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4117" s="58" t="s">
+        <v>5329</v>
+      </c>
+      <c r="C4117" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4117" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4117" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4118" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4118" s="58" t="s">
+        <v>5330</v>
+      </c>
+      <c r="C4118" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4118" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4118" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4119" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4119" s="58" t="s">
+        <v>5331</v>
+      </c>
+      <c r="C4119" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4119" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4119" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4120" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4120" s="58" t="s">
+        <v>5332</v>
+      </c>
+      <c r="C4120" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4120" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4120" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4121" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4121" s="58" t="s">
+        <v>5333</v>
+      </c>
+      <c r="C4121" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4121" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4121" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4122" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4122" s="58" t="s">
+        <v>5334</v>
+      </c>
+      <c r="C4122" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4122" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4122" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4123" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4123" s="58" t="s">
+        <v>5335</v>
+      </c>
+      <c r="C4123" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4123" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4123" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4124" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4124" s="58" t="s">
+        <v>5336</v>
+      </c>
+      <c r="C4124" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4124" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4124" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4125" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4125" s="58" t="s">
+        <v>5337</v>
+      </c>
+      <c r="C4125" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4125" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4125" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4126" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4126" s="58" t="s">
+        <v>5338</v>
+      </c>
+      <c r="C4126" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4126" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4126" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4127" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4127" s="58" t="s">
+        <v>5339</v>
+      </c>
+      <c r="C4127" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4127" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4127" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4128" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4128" s="58" t="s">
+        <v>5340</v>
+      </c>
+      <c r="C4128" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4128" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4128" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4129" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4129" s="58" t="s">
+        <v>5341</v>
+      </c>
+      <c r="C4129" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4129" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4129" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4130" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4130" s="58" t="s">
+        <v>5342</v>
+      </c>
+      <c r="C4130" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4130" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4130" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4131" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4131" s="58" t="s">
+        <v>5343</v>
+      </c>
+      <c r="C4131" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4131" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4131" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4132" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4132" s="58" t="s">
+        <v>5344</v>
+      </c>
+      <c r="C4132" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4132" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4132" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4133" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4133" s="58" t="s">
+        <v>5345</v>
+      </c>
+      <c r="C4133" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4133" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4133" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4134" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4134" s="58" t="s">
+        <v>5346</v>
+      </c>
+      <c r="C4134" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4134" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4134" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4135" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4135" s="58" t="s">
+        <v>5347</v>
+      </c>
+      <c r="C4135" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4135" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4135" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4136" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4136" s="58" t="s">
+        <v>5348</v>
+      </c>
+      <c r="C4136" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4136" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4136" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4137" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4137" s="58" t="s">
+        <v>5349</v>
+      </c>
+      <c r="C4137" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4137" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4137" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4138" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4138" s="58" t="s">
+        <v>5350</v>
+      </c>
+      <c r="C4138" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4138" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4138" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4139" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4139" s="58" t="s">
+        <v>5351</v>
+      </c>
+      <c r="C4139" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4139" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4139" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4140" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4140" s="58" t="s">
+        <v>5352</v>
+      </c>
+      <c r="C4140" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4140" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4140" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4141" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4141" s="58" t="s">
+        <v>5353</v>
+      </c>
+      <c r="C4141" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4141" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4141" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4142" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4142" s="58" t="s">
+        <v>5354</v>
+      </c>
+      <c r="C4142" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4142" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4142" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4143" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4143" s="58" t="s">
+        <v>5355</v>
+      </c>
+      <c r="C4143" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4143" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4143" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4144" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4144" s="58" t="s">
+        <v>5356</v>
+      </c>
+      <c r="C4144" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4144" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4144" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4145" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4145" s="58" t="s">
+        <v>5357</v>
+      </c>
+      <c r="C4145" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4145" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4145" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4146" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4146" s="58" t="s">
+        <v>5358</v>
+      </c>
+      <c r="C4146" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4146" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4146" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4147" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4147" s="58" t="s">
+        <v>5359</v>
+      </c>
+      <c r="C4147" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4147" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4147" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4148" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4148" s="58" t="s">
+        <v>5360</v>
+      </c>
+      <c r="C4148" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4148" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4148" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4149" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4149" s="58" t="s">
+        <v>5361</v>
+      </c>
+      <c r="C4149" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4149" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4149" s="58" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="4150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4150" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4150" s="58" t="s">
+        <v>5362</v>
+      </c>
+      <c r="C4150" s="58" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4150" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4150" s="58" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="4151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4151" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4151" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4151" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4151" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4151" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4152" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4152" s="58" t="s">
+        <v>5364</v>
+      </c>
+      <c r="C4152" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4152" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4152" s="58" t="s">
+        <v>5513</v>
+      </c>
+    </row>
+    <row r="4153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4153" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4153" s="58" t="s">
+        <v>5365</v>
+      </c>
+      <c r="C4153" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4153" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4153" s="58" t="s">
+        <v>5513</v>
+      </c>
+    </row>
+    <row r="4154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4154" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4154" s="58" t="s">
+        <v>5366</v>
+      </c>
+      <c r="C4154" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4154" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4154" s="58" t="s">
+        <v>5513</v>
+      </c>
+    </row>
+    <row r="4155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4155" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4155" s="58" t="s">
+        <v>5367</v>
+      </c>
+      <c r="C4155" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4155" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4155" s="58" t="s">
+        <v>5513</v>
+      </c>
+    </row>
+    <row r="4156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4156" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4156" s="58" t="s">
+        <v>5368</v>
+      </c>
+      <c r="C4156" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4156" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4156" s="58" t="s">
+        <v>5513</v>
+      </c>
+    </row>
+    <row r="4157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4157" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4157" s="58" t="s">
+        <v>5369</v>
+      </c>
+      <c r="C4157" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4157" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4157" s="58" t="s">
+        <v>5513</v>
+      </c>
+    </row>
+    <row r="4158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4158" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4158" s="58" t="s">
+        <v>5370</v>
+      </c>
+      <c r="C4158" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4158" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4158" s="58" t="s">
+        <v>5513</v>
+      </c>
+    </row>
+    <row r="4159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4159" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4159" s="58" t="s">
+        <v>5371</v>
+      </c>
+      <c r="C4159" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4159" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4159" s="58" t="s">
+        <v>5513</v>
+      </c>
+    </row>
+    <row r="4160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4160" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4160" s="58" t="s">
+        <v>5372</v>
+      </c>
+      <c r="C4160" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4160" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4160" s="58" t="s">
+        <v>5513</v>
+      </c>
+    </row>
+    <row r="4161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4161" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4161" s="58" t="s">
+        <v>5373</v>
+      </c>
+      <c r="C4161" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4161" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4161" s="58" t="s">
+        <v>5513</v>
+      </c>
+    </row>
+    <row r="4162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4162" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4162" s="58" t="s">
+        <v>5374</v>
+      </c>
+      <c r="C4162" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4162" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4162" s="58" t="s">
+        <v>5513</v>
+      </c>
+    </row>
+    <row r="4163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4163" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4163" s="58" t="s">
+        <v>5375</v>
+      </c>
+      <c r="C4163" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4163" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4163" s="58" t="s">
+        <v>5513</v>
+      </c>
+    </row>
+    <row r="4164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4164" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4164" s="58" t="s">
+        <v>5376</v>
+      </c>
+      <c r="C4164" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4164" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4164" s="58" t="s">
+        <v>5513</v>
+      </c>
+    </row>
+    <row r="4165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4165" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4165" s="58" t="s">
+        <v>5377</v>
+      </c>
+      <c r="C4165" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4165" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4165" s="58" t="s">
+        <v>5513</v>
+      </c>
+    </row>
+    <row r="4166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4166" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4166" s="58" t="s">
+        <v>5378</v>
+      </c>
+      <c r="C4166" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4166" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4166" s="58" t="s">
+        <v>5513</v>
+      </c>
+    </row>
+    <row r="4167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4167" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4167" s="58" t="s">
+        <v>5379</v>
+      </c>
+      <c r="C4167" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4167" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4167" s="58" t="s">
+        <v>5513</v>
+      </c>
+    </row>
+    <row r="4168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4168" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4168" s="58" t="s">
+        <v>5380</v>
+      </c>
+      <c r="C4168" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4168" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4168" s="58" t="s">
+        <v>5513</v>
+      </c>
+    </row>
+    <row r="4169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4169" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4169" s="58" t="s">
+        <v>5381</v>
+      </c>
+      <c r="C4169" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4169" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4169" s="58" t="s">
+        <v>5513</v>
+      </c>
+    </row>
+    <row r="4170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4170" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4170" s="58" t="s">
+        <v>5382</v>
+      </c>
+      <c r="C4170" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4170" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4170" s="58" t="s">
+        <v>5513</v>
+      </c>
+    </row>
+    <row r="4171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4171" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4171" s="58" t="s">
+        <v>5383</v>
+      </c>
+      <c r="C4171" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4171" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4171" s="58" t="s">
+        <v>5513</v>
+      </c>
+    </row>
+    <row r="4172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4172" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4172" s="58" t="s">
+        <v>5384</v>
+      </c>
+      <c r="C4172" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4172" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4172" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4173" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4173" s="58" t="s">
+        <v>5385</v>
+      </c>
+      <c r="C4173" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4173" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4173" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4174" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4174" s="58" t="s">
+        <v>5386</v>
+      </c>
+      <c r="C4174" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4174" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4174" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4175" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4175" s="58" t="s">
+        <v>5387</v>
+      </c>
+      <c r="C4175" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4175" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4175" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4176" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4176" s="58" t="s">
+        <v>5388</v>
+      </c>
+      <c r="C4176" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4176" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4176" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4177" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4177" s="58" t="s">
+        <v>5389</v>
+      </c>
+      <c r="C4177" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4177" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4177" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4178" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4178" s="58" t="s">
+        <v>5390</v>
+      </c>
+      <c r="C4178" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4178" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4178" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4179" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4179" s="58" t="s">
+        <v>5391</v>
+      </c>
+      <c r="C4179" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4179" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4179" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4180" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4180" s="58" t="s">
+        <v>5392</v>
+      </c>
+      <c r="C4180" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4180" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4180" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="4181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4181" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4181" s="58" t="s">
+        <v>5393</v>
+      </c>
+      <c r="C4181" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4181" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4181" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="4182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4182" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4182" s="58" t="s">
+        <v>5394</v>
+      </c>
+      <c r="C4182" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4182" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4182" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="4183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4183" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4183" s="58" t="s">
+        <v>5395</v>
+      </c>
+      <c r="C4183" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4183" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4183" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="4184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4184" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4184" s="58" t="s">
+        <v>5396</v>
+      </c>
+      <c r="C4184" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4184" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4184" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="4185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4185" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4185" s="58" t="s">
+        <v>5397</v>
+      </c>
+      <c r="C4185" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4185" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4185" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="4186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4186" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4186" s="58" t="s">
+        <v>5398</v>
+      </c>
+      <c r="C4186" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4186" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4186" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="4187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4187" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4187" s="58" t="s">
+        <v>5399</v>
+      </c>
+      <c r="C4187" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4187" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4187" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="4188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4188" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4188" s="58" t="s">
+        <v>5400</v>
+      </c>
+      <c r="C4188" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4188" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4188" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="4189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4189" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4189" s="58" t="s">
+        <v>5401</v>
+      </c>
+      <c r="C4189" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4189" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4189" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="4190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4190" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4190" s="58" t="s">
+        <v>5402</v>
+      </c>
+      <c r="C4190" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4190" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4190" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="4191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4191" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4191" s="58" t="s">
+        <v>5403</v>
+      </c>
+      <c r="C4191" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4191" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4191" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4192" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4192" s="58" t="s">
+        <v>5404</v>
+      </c>
+      <c r="C4192" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4192" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4192" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4193" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4193" s="58" t="s">
+        <v>5405</v>
+      </c>
+      <c r="C4193" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4193" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4193" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4194" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4194" s="58" t="s">
+        <v>5406</v>
+      </c>
+      <c r="C4194" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4194" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4194" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4195" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4195" s="58" t="s">
+        <v>5407</v>
+      </c>
+      <c r="C4195" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4195" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4195" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4196" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4196" s="58" t="s">
+        <v>5408</v>
+      </c>
+      <c r="C4196" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4196" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4196" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4197" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4197" s="58" t="s">
+        <v>5409</v>
+      </c>
+      <c r="C4197" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4197" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4197" s="58" t="s">
+        <v>5284</v>
+      </c>
+    </row>
+    <row r="4198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4198" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4198" s="58" t="s">
+        <v>5410</v>
+      </c>
+      <c r="C4198" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4198" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4198" s="58" t="s">
+        <v>5284</v>
+      </c>
+    </row>
+    <row r="4199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4199" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4199" s="58" t="s">
+        <v>5411</v>
+      </c>
+      <c r="C4199" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4199" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4199" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4200" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4200" s="58" t="s">
+        <v>5412</v>
+      </c>
+      <c r="C4200" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4200" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4200" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4201" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4201" s="58" t="s">
+        <v>5413</v>
+      </c>
+      <c r="C4201" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4201" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4201" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4202" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4202" s="58" t="s">
+        <v>5414</v>
+      </c>
+      <c r="C4202" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4202" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4202" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4203" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4203" s="58" t="s">
+        <v>5415</v>
+      </c>
+      <c r="C4203" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4203" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4203" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4204" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4204" s="58" t="s">
+        <v>5416</v>
+      </c>
+      <c r="C4204" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4204" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4204" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4205" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4205" s="58" t="s">
+        <v>5417</v>
+      </c>
+      <c r="C4205" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4205" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4205" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4206" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4206" s="58" t="s">
+        <v>5418</v>
+      </c>
+      <c r="C4206" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4206" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4206" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4207" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4207" s="58" t="s">
+        <v>5419</v>
+      </c>
+      <c r="C4207" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4207" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4207" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4208" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4208" s="58" t="s">
+        <v>5420</v>
+      </c>
+      <c r="C4208" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4208" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4208" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4209" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4209" s="58" t="s">
+        <v>5421</v>
+      </c>
+      <c r="C4209" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4209" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4209" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4210" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4210" s="58" t="s">
+        <v>5422</v>
+      </c>
+      <c r="C4210" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4210" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4210" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4211" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4211" s="58" t="s">
+        <v>5423</v>
+      </c>
+      <c r="C4211" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4211" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4211" s="58" t="s">
+        <v>5286</v>
+      </c>
+    </row>
+    <row r="4212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4212" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4212" s="58" t="s">
+        <v>5424</v>
+      </c>
+      <c r="C4212" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4212" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4212" s="58" t="s">
+        <v>5286</v>
+      </c>
+    </row>
+    <row r="4213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4213" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4213" s="58" t="s">
+        <v>5425</v>
+      </c>
+      <c r="C4213" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4213" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4213" s="58" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="4214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4214" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4214" s="58" t="s">
+        <v>5426</v>
+      </c>
+      <c r="C4214" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4214" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4214" s="58" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="4215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4215" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4215" s="58" t="s">
+        <v>5427</v>
+      </c>
+      <c r="C4215" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4215" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4215" s="58" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="4216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4216" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4216" s="58" t="s">
+        <v>5428</v>
+      </c>
+      <c r="C4216" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4216" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4216" s="58" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="4217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4217" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4217" s="58" t="s">
+        <v>5429</v>
+      </c>
+      <c r="C4217" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4217" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4217" s="58" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="4218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4218" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4218" s="58" t="s">
+        <v>5430</v>
+      </c>
+      <c r="C4218" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4218" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4218" s="58" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="4219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4219" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4219" s="58" t="s">
+        <v>5431</v>
+      </c>
+      <c r="C4219" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4219" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4219" s="58" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="4220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4220" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4220" s="58" t="s">
+        <v>5432</v>
+      </c>
+      <c r="C4220" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4220" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4220" s="58" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="4221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4221" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4221" s="58" t="s">
+        <v>5433</v>
+      </c>
+      <c r="C4221" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4221" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4221" s="58" t="s">
+        <v>5284</v>
+      </c>
+    </row>
+    <row r="4222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4222" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4222" s="58" t="s">
+        <v>5434</v>
+      </c>
+      <c r="C4222" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4222" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4222" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4223" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4223" s="58" t="s">
+        <v>5435</v>
+      </c>
+      <c r="C4223" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4223" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4223" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4224" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4224" s="58" t="s">
+        <v>5436</v>
+      </c>
+      <c r="C4224" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4224" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4224" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4225" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4225" s="58" t="s">
+        <v>5437</v>
+      </c>
+      <c r="C4225" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4225" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4225" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4226" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4226" s="58" t="s">
+        <v>5438</v>
+      </c>
+      <c r="C4226" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4226" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4226" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4227" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4227" s="58" t="s">
+        <v>5439</v>
+      </c>
+      <c r="C4227" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4227" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4227" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4228" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4228" s="58" t="s">
+        <v>5440</v>
+      </c>
+      <c r="C4228" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4228" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4228" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4229" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4229" s="58" t="s">
+        <v>5441</v>
+      </c>
+      <c r="C4229" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4229" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4229" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4230" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4230" s="58" t="s">
+        <v>5442</v>
+      </c>
+      <c r="C4230" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4230" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4230" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4231" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4231" s="58" t="s">
+        <v>5443</v>
+      </c>
+      <c r="C4231" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4231" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4231" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4232" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4232" s="58" t="s">
+        <v>5444</v>
+      </c>
+      <c r="C4232" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4232" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4232" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4233" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4233" s="58" t="s">
+        <v>5445</v>
+      </c>
+      <c r="C4233" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4233" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4233" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4234" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4234" s="58" t="s">
+        <v>5446</v>
+      </c>
+      <c r="C4234" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4234" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4234" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4235" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4235" s="58" t="s">
+        <v>5447</v>
+      </c>
+      <c r="C4235" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4235" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4235" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4236" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4236" s="58" t="s">
+        <v>5448</v>
+      </c>
+      <c r="C4236" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4236" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4236" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4237" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4237" s="58" t="s">
+        <v>5449</v>
+      </c>
+      <c r="C4237" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4237" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4237" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4238" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4238" s="58" t="s">
+        <v>5450</v>
+      </c>
+      <c r="C4238" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4238" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4238" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4239" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4239" s="58" t="s">
+        <v>5451</v>
+      </c>
+      <c r="C4239" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4239" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4239" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4240" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4240" s="58" t="s">
+        <v>5452</v>
+      </c>
+      <c r="C4240" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4240" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4240" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4241" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4241" s="58" t="s">
+        <v>5453</v>
+      </c>
+      <c r="C4241" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4241" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4241" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4242" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4242" s="58" t="s">
+        <v>5454</v>
+      </c>
+      <c r="C4242" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4242" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4242" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4243" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4243" s="58" t="s">
+        <v>5455</v>
+      </c>
+      <c r="C4243" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4243" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4243" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4244" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4244" s="58" t="s">
+        <v>5456</v>
+      </c>
+      <c r="C4244" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4244" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4244" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4245" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4245" s="58" t="s">
+        <v>5457</v>
+      </c>
+      <c r="C4245" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4245" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4245" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4246" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4246" s="58" t="s">
+        <v>5458</v>
+      </c>
+      <c r="C4246" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4246" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4246" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4247" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4247" s="58" t="s">
+        <v>5459</v>
+      </c>
+      <c r="C4247" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4247" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4247" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4248" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4248" s="58" t="s">
+        <v>5460</v>
+      </c>
+      <c r="C4248" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4248" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4248" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4249" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4249" s="58" t="s">
+        <v>5461</v>
+      </c>
+      <c r="C4249" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4249" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4249" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4250" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4250" s="58" t="s">
+        <v>5333</v>
+      </c>
+      <c r="C4250" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4250" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4250" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4251" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4251" s="58" t="s">
+        <v>5462</v>
+      </c>
+      <c r="C4251" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4251" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4251" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4252" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4252" s="58" t="s">
+        <v>5463</v>
+      </c>
+      <c r="C4252" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4252" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4252" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4253" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4253" s="58" t="s">
+        <v>5464</v>
+      </c>
+      <c r="C4253" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4253" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4253" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4254" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4254" s="58" t="s">
+        <v>5465</v>
+      </c>
+      <c r="C4254" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4254" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4254" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4255" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4255" s="58" t="s">
+        <v>5337</v>
+      </c>
+      <c r="C4255" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4255" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4255" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4256" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4256" s="58" t="s">
+        <v>5466</v>
+      </c>
+      <c r="C4256" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4256" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4256" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4257" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4257" s="58" t="s">
+        <v>5467</v>
+      </c>
+      <c r="C4257" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4257" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4257" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4258" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4258" s="58" t="s">
+        <v>5468</v>
+      </c>
+      <c r="C4258" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4258" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4258" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4259" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4259" s="58" t="s">
+        <v>5469</v>
+      </c>
+      <c r="C4259" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4259" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4259" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4260" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4260" s="58" t="s">
+        <v>5340</v>
+      </c>
+      <c r="C4260" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4260" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4260" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4261" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4261" s="58" t="s">
+        <v>5470</v>
+      </c>
+      <c r="C4261" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4261" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4261" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4262" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4262" s="58" t="s">
+        <v>5471</v>
+      </c>
+      <c r="C4262" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4262" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4262" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4263" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4263" s="58" t="s">
+        <v>5472</v>
+      </c>
+      <c r="C4263" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4263" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4263" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4264" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4264" s="58" t="s">
+        <v>5473</v>
+      </c>
+      <c r="C4264" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4264" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4264" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4265" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4265" s="58" t="s">
+        <v>5474</v>
+      </c>
+      <c r="C4265" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4265" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4265" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4266" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4266" s="58" t="s">
+        <v>5475</v>
+      </c>
+      <c r="C4266" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4266" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4266" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4267" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4267" s="58" t="s">
+        <v>5341</v>
+      </c>
+      <c r="C4267" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4267" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4267" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4268" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4268" s="58" t="s">
+        <v>5342</v>
+      </c>
+      <c r="C4268" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4268" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4268" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4269" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4269" s="58" t="s">
+        <v>5476</v>
+      </c>
+      <c r="C4269" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4269" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4269" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4270" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4270" s="58" t="s">
+        <v>5477</v>
+      </c>
+      <c r="C4270" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4270" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4270" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4271" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4271" s="58" t="s">
+        <v>5478</v>
+      </c>
+      <c r="C4271" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4271" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4271" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4272" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4272" s="58" t="s">
+        <v>5479</v>
+      </c>
+      <c r="C4272" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4272" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4272" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4273" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4273" s="58" t="s">
+        <v>5480</v>
+      </c>
+      <c r="C4273" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4273" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4273" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4274" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4274" s="58" t="s">
+        <v>5481</v>
+      </c>
+      <c r="C4274" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4274" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4274" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4275" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4275" s="58" t="s">
+        <v>5482</v>
+      </c>
+      <c r="C4275" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4275" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4275" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4276" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4276" s="58" t="s">
+        <v>5483</v>
+      </c>
+      <c r="C4276" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4276" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4276" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4277" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4277" s="58" t="s">
+        <v>5484</v>
+      </c>
+      <c r="C4277" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4277" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4277" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4278" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4278" s="58" t="s">
+        <v>5485</v>
+      </c>
+      <c r="C4278" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4278" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4278" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4279" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4279" s="58" t="s">
+        <v>5486</v>
+      </c>
+      <c r="C4279" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4279" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4279" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="4280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4280" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4280" s="58" t="s">
+        <v>5487</v>
+      </c>
+      <c r="C4280" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4280" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4280" s="58" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="4281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4281" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4281" s="58" t="s">
+        <v>5488</v>
+      </c>
+      <c r="C4281" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4281" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4281" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4282" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4282" s="58" t="s">
+        <v>5489</v>
+      </c>
+      <c r="C4282" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4282" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4282" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4283" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4283" s="58" t="s">
+        <v>5490</v>
+      </c>
+      <c r="C4283" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4283" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4283" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4284" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4284" s="58" t="s">
+        <v>5491</v>
+      </c>
+      <c r="C4284" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4284" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4284" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4285" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4285" s="58" t="s">
+        <v>5248</v>
+      </c>
+      <c r="C4285" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4285" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4285" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4286" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4286" s="58" t="s">
+        <v>5492</v>
+      </c>
+      <c r="C4286" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4286" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4286" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4287" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4287" s="58" t="s">
+        <v>5493</v>
+      </c>
+      <c r="C4287" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4287" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4287" s="58" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="4288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4288" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4288" s="58" t="s">
+        <v>5494</v>
+      </c>
+      <c r="C4288" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4288" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4288" s="58" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="4289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4289" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4289" s="58" t="s">
+        <v>5495</v>
+      </c>
+      <c r="C4289" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4289" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4289" s="58" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="4290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4290" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4290" s="58" t="s">
+        <v>5496</v>
+      </c>
+      <c r="C4290" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4290" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4290" s="58" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="4291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4291" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4291" s="58" t="s">
+        <v>5497</v>
+      </c>
+      <c r="C4291" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4291" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4291" s="58" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="4292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4292" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4292" s="58" t="s">
+        <v>5498</v>
+      </c>
+      <c r="C4292" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4292" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4292" s="58" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="4293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4293" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4293" s="58" t="s">
+        <v>5499</v>
+      </c>
+      <c r="C4293" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4293" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4293" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4294" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4294" s="58" t="s">
+        <v>5500</v>
+      </c>
+      <c r="C4294" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4294" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4294" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4295" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4295" s="58" t="s">
+        <v>5501</v>
+      </c>
+      <c r="C4295" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4295" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4295" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4296" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4296" s="58" t="s">
+        <v>5502</v>
+      </c>
+      <c r="C4296" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4296" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4296" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4297" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4297" s="58" t="s">
+        <v>5502</v>
+      </c>
+      <c r="C4297" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4297" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4297" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4298" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4298" s="58" t="s">
+        <v>5503</v>
+      </c>
+      <c r="C4298" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4298" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4298" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4299" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4299" s="58" t="s">
+        <v>5504</v>
+      </c>
+      <c r="C4299" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4299" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4299" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4300" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4300" s="58" t="s">
+        <v>5505</v>
+      </c>
+      <c r="C4300" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4300" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4300" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4301" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4301" s="58" t="s">
+        <v>5506</v>
+      </c>
+      <c r="C4301" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4301" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4301" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4302" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4302" s="58" t="s">
+        <v>5507</v>
+      </c>
+      <c r="C4302" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4302" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4302" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4303" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4303" s="58" t="s">
+        <v>5508</v>
+      </c>
+      <c r="C4303" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4303" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4303" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4304" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4304" s="58" t="s">
+        <v>5509</v>
+      </c>
+      <c r="C4304" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4304" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4304" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4305" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4305" s="58" t="s">
+        <v>5510</v>
+      </c>
+      <c r="C4305" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4305" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4305" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4306" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4306" s="58" t="s">
+        <v>5511</v>
+      </c>
+      <c r="C4306" s="58" t="s">
+        <v>5512</v>
+      </c>
+      <c r="D4306" s="58" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E4306" s="58" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="4307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4307" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4307" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4307" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4307" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4307" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4308" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4308" s="58" t="s">
+        <v>5514</v>
+      </c>
+      <c r="C4308" s="58" t="s">
+        <v>5539</v>
+      </c>
+      <c r="D4308" s="58" t="s">
+        <v>5540</v>
+      </c>
+      <c r="E4308" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4309" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4309" s="58" t="s">
+        <v>5515</v>
+      </c>
+      <c r="C4309" s="58" t="s">
+        <v>5539</v>
+      </c>
+      <c r="D4309" s="58" t="s">
+        <v>5540</v>
+      </c>
+      <c r="E4309" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4310" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4310" s="58" t="s">
+        <v>5516</v>
+      </c>
+      <c r="C4310" s="58" t="s">
+        <v>5539</v>
+      </c>
+      <c r="D4310" s="58" t="s">
+        <v>5540</v>
+      </c>
+      <c r="E4310" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4311" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4311" s="58" t="s">
+        <v>5517</v>
+      </c>
+      <c r="C4311" s="58" t="s">
+        <v>5539</v>
+      </c>
+      <c r="D4311" s="58" t="s">
+        <v>5540</v>
+      </c>
+      <c r="E4311" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4312" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4312" s="58" t="s">
+        <v>5518</v>
+      </c>
+      <c r="C4312" s="58" t="s">
+        <v>5539</v>
+      </c>
+      <c r="D4312" s="58" t="s">
+        <v>5540</v>
+      </c>
+      <c r="E4312" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4313" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4313" s="58" t="s">
+        <v>5519</v>
+      </c>
+      <c r="C4313" s="58" t="s">
+        <v>5539</v>
+      </c>
+      <c r="D4313" s="58" t="s">
+        <v>5540</v>
+      </c>
+      <c r="E4313" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4314" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4314" s="58" t="s">
+        <v>5520</v>
+      </c>
+      <c r="C4314" s="58" t="s">
+        <v>5539</v>
+      </c>
+      <c r="D4314" s="58" t="s">
+        <v>5540</v>
+      </c>
+      <c r="E4314" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4315" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4315" s="58" t="s">
+        <v>5521</v>
+      </c>
+      <c r="C4315" s="58" t="s">
+        <v>5539</v>
+      </c>
+      <c r="D4315" s="58" t="s">
+        <v>5540</v>
+      </c>
+      <c r="E4315" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4316" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4316" s="58" t="s">
+        <v>5522</v>
+      </c>
+      <c r="C4316" s="58" t="s">
+        <v>5539</v>
+      </c>
+      <c r="D4316" s="58" t="s">
+        <v>5540</v>
+      </c>
+      <c r="E4316" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4317" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4317" s="58" t="s">
+        <v>5523</v>
+      </c>
+      <c r="C4317" s="58" t="s">
+        <v>5539</v>
+      </c>
+      <c r="D4317" s="58" t="s">
+        <v>5540</v>
+      </c>
+      <c r="E4317" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4318" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4318" s="58" t="s">
+        <v>5524</v>
+      </c>
+      <c r="C4318" s="58" t="s">
+        <v>5539</v>
+      </c>
+      <c r="D4318" s="58" t="s">
+        <v>5540</v>
+      </c>
+      <c r="E4318" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4319" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4319" s="58" t="s">
+        <v>5525</v>
+      </c>
+      <c r="C4319" s="58" t="s">
+        <v>5539</v>
+      </c>
+      <c r="D4319" s="58" t="s">
+        <v>5540</v>
+      </c>
+      <c r="E4319" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4320" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4320" s="58" t="s">
+        <v>5526</v>
+      </c>
+      <c r="C4320" s="58" t="s">
+        <v>5539</v>
+      </c>
+      <c r="D4320" s="58" t="s">
+        <v>5540</v>
+      </c>
+      <c r="E4320" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4321" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4321" s="58" t="s">
+        <v>5527</v>
+      </c>
+      <c r="C4321" s="58" t="s">
+        <v>5539</v>
+      </c>
+      <c r="D4321" s="58" t="s">
+        <v>5540</v>
+      </c>
+      <c r="E4321" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4322" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4322" s="58" t="s">
+        <v>5528</v>
+      </c>
+      <c r="C4322" s="58" t="s">
+        <v>5539</v>
+      </c>
+      <c r="D4322" s="58" t="s">
+        <v>5540</v>
+      </c>
+      <c r="E4322" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4323" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4323" s="58" t="s">
+        <v>5529</v>
+      </c>
+      <c r="C4323" s="58" t="s">
+        <v>5539</v>
+      </c>
+      <c r="D4323" s="58" t="s">
+        <v>5540</v>
+      </c>
+      <c r="E4323" s="58" t="s">
+        <v>5283</v>
+      </c>
+    </row>
+    <row r="4324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4324" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4324" s="58" t="s">
+        <v>5530</v>
+      </c>
+      <c r="C4324" s="58" t="s">
+        <v>5539</v>
+      </c>
+      <c r="D4324" s="58" t="s">
+        <v>5540</v>
+      </c>
+      <c r="E4324" s="58" t="s">
+        <v>5283</v>
+      </c>
+    </row>
+    <row r="4325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4325" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4325" s="58" t="s">
+        <v>5531</v>
+      </c>
+      <c r="C4325" s="58" t="s">
+        <v>5539</v>
+      </c>
+      <c r="D4325" s="58" t="s">
+        <v>5540</v>
+      </c>
+      <c r="E4325" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4326" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4326" s="58" t="s">
+        <v>5532</v>
+      </c>
+      <c r="C4326" s="58" t="s">
+        <v>5539</v>
+      </c>
+      <c r="D4326" s="58" t="s">
+        <v>5540</v>
+      </c>
+      <c r="E4326" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4327" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4327" s="58" t="s">
+        <v>5533</v>
+      </c>
+      <c r="C4327" s="58" t="s">
+        <v>5539</v>
+      </c>
+      <c r="D4327" s="58" t="s">
+        <v>5540</v>
+      </c>
+      <c r="E4327" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4328" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4328" s="58" t="s">
+        <v>5534</v>
+      </c>
+      <c r="C4328" s="58" t="s">
+        <v>5539</v>
+      </c>
+      <c r="D4328" s="58" t="s">
+        <v>5540</v>
+      </c>
+      <c r="E4328" s="58" t="s">
+        <v>5283</v>
+      </c>
+    </row>
+    <row r="4329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4329" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4329" s="58" t="s">
+        <v>5535</v>
+      </c>
+      <c r="C4329" s="58" t="s">
+        <v>5539</v>
+      </c>
+      <c r="D4329" s="58" t="s">
+        <v>5540</v>
+      </c>
+      <c r="E4329" s="58" t="s">
+        <v>5283</v>
+      </c>
+    </row>
+    <row r="4330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4330" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4330" s="58" t="s">
+        <v>5536</v>
+      </c>
+      <c r="C4330" s="58" t="s">
+        <v>5539</v>
+      </c>
+      <c r="D4330" s="58" t="s">
+        <v>5540</v>
+      </c>
+      <c r="E4330" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4331" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4331" s="58" t="s">
+        <v>5537</v>
+      </c>
+      <c r="C4331" s="58" t="s">
+        <v>5539</v>
+      </c>
+      <c r="D4331" s="58" t="s">
+        <v>5540</v>
+      </c>
+      <c r="E4331" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4332" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4332" s="58" t="s">
+        <v>5538</v>
+      </c>
+      <c r="C4332" s="58" t="s">
+        <v>5539</v>
+      </c>
+      <c r="D4332" s="58" t="s">
+        <v>5540</v>
+      </c>
+      <c r="E4332" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4333" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4333" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4333" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4333" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4333" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4334" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4334" s="58" t="s">
+        <v>5541</v>
+      </c>
+      <c r="C4334" s="58" t="s">
+        <v>5558</v>
+      </c>
+      <c r="D4334" s="58" t="s">
+        <v>5540</v>
+      </c>
+      <c r="E4334" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4335" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4335" s="58" t="s">
+        <v>5542</v>
+      </c>
+      <c r="C4335" s="58" t="s">
+        <v>5558</v>
+      </c>
+      <c r="D4335" s="58" t="s">
+        <v>5540</v>
+      </c>
+      <c r="E4335" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4336" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4336" s="58" t="s">
+        <v>5543</v>
+      </c>
+      <c r="C4336" s="58" t="s">
+        <v>5558</v>
+      </c>
+      <c r="D4336" s="58" t="s">
+        <v>5540</v>
+      </c>
+      <c r="E4336" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4337" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4337" s="58" t="s">
+        <v>5544</v>
+      </c>
+      <c r="C4337" s="58" t="s">
+        <v>5558</v>
+      </c>
+      <c r="D4337" s="58" t="s">
+        <v>5540</v>
+      </c>
+      <c r="E4337" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4338" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4338" s="58" t="s">
+        <v>5545</v>
+      </c>
+      <c r="C4338" s="58" t="s">
+        <v>5558</v>
+      </c>
+      <c r="D4338" s="58" t="s">
+        <v>5540</v>
+      </c>
+      <c r="E4338" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4339" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4339" s="58" t="s">
+        <v>5546</v>
+      </c>
+      <c r="C4339" s="58" t="s">
+        <v>5558</v>
+      </c>
+      <c r="D4339" s="58" t="s">
+        <v>5540</v>
+      </c>
+      <c r="E4339" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4340" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4340" s="58" t="s">
+        <v>5547</v>
+      </c>
+      <c r="C4340" s="58" t="s">
+        <v>5558</v>
+      </c>
+      <c r="D4340" s="58" t="s">
+        <v>5540</v>
+      </c>
+      <c r="E4340" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4341" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4341" s="58" t="s">
+        <v>5548</v>
+      </c>
+      <c r="C4341" s="58" t="s">
+        <v>5558</v>
+      </c>
+      <c r="D4341" s="58" t="s">
+        <v>5540</v>
+      </c>
+      <c r="E4341" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4342" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4342" s="58" t="s">
+        <v>5549</v>
+      </c>
+      <c r="C4342" s="58" t="s">
+        <v>5558</v>
+      </c>
+      <c r="D4342" s="58" t="s">
+        <v>5540</v>
+      </c>
+      <c r="E4342" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4343" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4343" s="58" t="s">
+        <v>5550</v>
+      </c>
+      <c r="C4343" s="58" t="s">
+        <v>5558</v>
+      </c>
+      <c r="D4343" s="58" t="s">
+        <v>5540</v>
+      </c>
+      <c r="E4343" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4344" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4344" s="58" t="s">
+        <v>5551</v>
+      </c>
+      <c r="C4344" s="58" t="s">
+        <v>5558</v>
+      </c>
+      <c r="D4344" s="58" t="s">
+        <v>5540</v>
+      </c>
+      <c r="E4344" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4345" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4345" s="58" t="s">
+        <v>5552</v>
+      </c>
+      <c r="C4345" s="58" t="s">
+        <v>5558</v>
+      </c>
+      <c r="D4345" s="58" t="s">
+        <v>5540</v>
+      </c>
+      <c r="E4345" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4346" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4346" s="58" t="s">
+        <v>5553</v>
+      </c>
+      <c r="C4346" s="58" t="s">
+        <v>5558</v>
+      </c>
+      <c r="D4346" s="58" t="s">
+        <v>5540</v>
+      </c>
+      <c r="E4346" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4347" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4347" s="58" t="s">
+        <v>5554</v>
+      </c>
+      <c r="C4347" s="58" t="s">
+        <v>5558</v>
+      </c>
+      <c r="D4347" s="58" t="s">
+        <v>5540</v>
+      </c>
+      <c r="E4347" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4348" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4348" s="58" t="s">
+        <v>5555</v>
+      </c>
+      <c r="C4348" s="58" t="s">
+        <v>5558</v>
+      </c>
+      <c r="D4348" s="58" t="s">
+        <v>5540</v>
+      </c>
+      <c r="E4348" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4349" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4349" s="58" t="s">
+        <v>5556</v>
+      </c>
+      <c r="C4349" s="58" t="s">
+        <v>5558</v>
+      </c>
+      <c r="D4349" s="58" t="s">
+        <v>5540</v>
+      </c>
+      <c r="E4349" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4350" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4350" s="58" t="s">
+        <v>5557</v>
+      </c>
+      <c r="C4350" s="58" t="s">
+        <v>5558</v>
+      </c>
+      <c r="D4350" s="58" t="s">
+        <v>5540</v>
+      </c>
+      <c r="E4350" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4351" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4351" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4351" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4351" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4351" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4352" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4352" s="58" t="s">
+        <v>5559</v>
+      </c>
+      <c r="C4352" s="58" t="s">
+        <v>5586</v>
+      </c>
+      <c r="D4352" s="58" t="s">
+        <v>5587</v>
+      </c>
+      <c r="E4352" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4353" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4353" s="58" t="s">
+        <v>5560</v>
+      </c>
+      <c r="C4353" s="58" t="s">
+        <v>5586</v>
+      </c>
+      <c r="D4353" s="58" t="s">
+        <v>5587</v>
+      </c>
+      <c r="E4353" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4354" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4354" s="58" t="s">
+        <v>5561</v>
+      </c>
+      <c r="C4354" s="58" t="s">
+        <v>5586</v>
+      </c>
+      <c r="D4354" s="58" t="s">
+        <v>5587</v>
+      </c>
+      <c r="E4354" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4355" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4355" s="58" t="s">
+        <v>5562</v>
+      </c>
+      <c r="C4355" s="58" t="s">
+        <v>5586</v>
+      </c>
+      <c r="D4355" s="58" t="s">
+        <v>5587</v>
+      </c>
+      <c r="E4355" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4356" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4356" s="58" t="s">
+        <v>5563</v>
+      </c>
+      <c r="C4356" s="58" t="s">
+        <v>5586</v>
+      </c>
+      <c r="D4356" s="58" t="s">
+        <v>5587</v>
+      </c>
+      <c r="E4356" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4357" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4357" s="58" t="s">
+        <v>5564</v>
+      </c>
+      <c r="C4357" s="58" t="s">
+        <v>5586</v>
+      </c>
+      <c r="D4357" s="58" t="s">
+        <v>5587</v>
+      </c>
+      <c r="E4357" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4358" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4358" s="58" t="s">
+        <v>5565</v>
+      </c>
+      <c r="C4358" s="58" t="s">
+        <v>5586</v>
+      </c>
+      <c r="D4358" s="58" t="s">
+        <v>5587</v>
+      </c>
+      <c r="E4358" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4359" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4359" s="58" t="s">
+        <v>5566</v>
+      </c>
+      <c r="C4359" s="58" t="s">
+        <v>5586</v>
+      </c>
+      <c r="D4359" s="58" t="s">
+        <v>5587</v>
+      </c>
+      <c r="E4359" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4360" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4360" s="58" t="s">
+        <v>5567</v>
+      </c>
+      <c r="C4360" s="58" t="s">
+        <v>5586</v>
+      </c>
+      <c r="D4360" s="58" t="s">
+        <v>5587</v>
+      </c>
+      <c r="E4360" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4361" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4361" s="58" t="s">
+        <v>5568</v>
+      </c>
+      <c r="C4361" s="58" t="s">
+        <v>5586</v>
+      </c>
+      <c r="D4361" s="58" t="s">
+        <v>5587</v>
+      </c>
+      <c r="E4361" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4362" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4362" s="58" t="s">
+        <v>5569</v>
+      </c>
+      <c r="C4362" s="58" t="s">
+        <v>5586</v>
+      </c>
+      <c r="D4362" s="58" t="s">
+        <v>5587</v>
+      </c>
+      <c r="E4362" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4363" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4363" s="58" t="s">
+        <v>5570</v>
+      </c>
+      <c r="C4363" s="58" t="s">
+        <v>5586</v>
+      </c>
+      <c r="D4363" s="58" t="s">
+        <v>5587</v>
+      </c>
+      <c r="E4363" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4364" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4364" s="58" t="s">
+        <v>5571</v>
+      </c>
+      <c r="C4364" s="58" t="s">
+        <v>5586</v>
+      </c>
+      <c r="D4364" s="58" t="s">
+        <v>5587</v>
+      </c>
+      <c r="E4364" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4365" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4365" s="58" t="s">
+        <v>5572</v>
+      </c>
+      <c r="C4365" s="58" t="s">
+        <v>5586</v>
+      </c>
+      <c r="D4365" s="58" t="s">
+        <v>5587</v>
+      </c>
+      <c r="E4365" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4366" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4366" s="58" t="s">
+        <v>5573</v>
+      </c>
+      <c r="C4366" s="58" t="s">
+        <v>5586</v>
+      </c>
+      <c r="D4366" s="58" t="s">
+        <v>5587</v>
+      </c>
+      <c r="E4366" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4367" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4367" s="58" t="s">
+        <v>5574</v>
+      </c>
+      <c r="C4367" s="58" t="s">
+        <v>5586</v>
+      </c>
+      <c r="D4367" s="58" t="s">
+        <v>5587</v>
+      </c>
+      <c r="E4367" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4368" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4368" s="58" t="s">
+        <v>5575</v>
+      </c>
+      <c r="C4368" s="58" t="s">
+        <v>5586</v>
+      </c>
+      <c r="D4368" s="58" t="s">
+        <v>5587</v>
+      </c>
+      <c r="E4368" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4369" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4369" s="58" t="s">
+        <v>5576</v>
+      </c>
+      <c r="C4369" s="58" t="s">
+        <v>5586</v>
+      </c>
+      <c r="D4369" s="58" t="s">
+        <v>5587</v>
+      </c>
+      <c r="E4369" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4370" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4370" s="58" t="s">
+        <v>5573</v>
+      </c>
+      <c r="C4370" s="58" t="s">
+        <v>5586</v>
+      </c>
+      <c r="D4370" s="58" t="s">
+        <v>5587</v>
+      </c>
+      <c r="E4370" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4371" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4371" s="58" t="s">
+        <v>5577</v>
+      </c>
+      <c r="C4371" s="58" t="s">
+        <v>5586</v>
+      </c>
+      <c r="D4371" s="58" t="s">
+        <v>5587</v>
+      </c>
+      <c r="E4371" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4372" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4372" s="58" t="s">
+        <v>5578</v>
+      </c>
+      <c r="C4372" s="58" t="s">
+        <v>5586</v>
+      </c>
+      <c r="D4372" s="58" t="s">
+        <v>5587</v>
+      </c>
+      <c r="E4372" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4373" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4373" s="58" t="s">
+        <v>5579</v>
+      </c>
+      <c r="C4373" s="58" t="s">
+        <v>5586</v>
+      </c>
+      <c r="D4373" s="58" t="s">
+        <v>5587</v>
+      </c>
+      <c r="E4373" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4374" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4374" s="58" t="s">
+        <v>5580</v>
+      </c>
+      <c r="C4374" s="58" t="s">
+        <v>5586</v>
+      </c>
+      <c r="D4374" s="58" t="s">
+        <v>5587</v>
+      </c>
+      <c r="E4374" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4375" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4375" s="58" t="s">
+        <v>5581</v>
+      </c>
+      <c r="C4375" s="58" t="s">
+        <v>5586</v>
+      </c>
+      <c r="D4375" s="58" t="s">
+        <v>5587</v>
+      </c>
+      <c r="E4375" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4376" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4376" s="58" t="s">
+        <v>5582</v>
+      </c>
+      <c r="C4376" s="58" t="s">
+        <v>5586</v>
+      </c>
+      <c r="D4376" s="58" t="s">
+        <v>5587</v>
+      </c>
+      <c r="E4376" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4377" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4377" s="58" t="s">
+        <v>5583</v>
+      </c>
+      <c r="C4377" s="58" t="s">
+        <v>5586</v>
+      </c>
+      <c r="D4377" s="58" t="s">
+        <v>5587</v>
+      </c>
+      <c r="E4377" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4378" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4378" s="58" t="s">
+        <v>5584</v>
+      </c>
+      <c r="C4378" s="58" t="s">
+        <v>5586</v>
+      </c>
+      <c r="D4378" s="58" t="s">
+        <v>5587</v>
+      </c>
+      <c r="E4378" s="58" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="4379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4379" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4379" s="58" t="s">
+        <v>5585</v>
+      </c>
+      <c r="C4379" s="58" t="s">
+        <v>5586</v>
+      </c>
+      <c r="D4379" s="58" t="s">
+        <v>5587</v>
+      </c>
+      <c r="E4379" s="58" t="s">
+        <v>5283</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
